--- a/web-automation-framework/src/main/resources/excel/FlujosMCSS.xlsx
+++ b/web-automation-framework/src/main/resources/excel/FlujosMCSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="2760" windowWidth="14670" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="2760" windowWidth="14670" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Login" r:id="rId1" sheetId="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>TC1</t>
   </si>
@@ -104,12 +104,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>https://tfpwltst02:17231/mcssclient/mcss/web/</t>
-  </si>
-  <si>
-    <t>DLC_04</t>
-  </si>
-  <si>
     <t>123900000164783</t>
   </si>
   <si>
@@ -117,6 +111,63 @@
   </si>
   <si>
     <t>000112975</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com/index.php</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Fort</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Alem 154</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>ricardofort26543374@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -126,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,501 +218,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -685,12 +241,9 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -704,107 +257,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
@@ -1088,61 +544,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
     <row customFormat="1" r="2" s="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>123123123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1">
+        <v>14525</v>
+      </c>
+      <c r="J2" s="1">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1999</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1425252144</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="T2" t="s">
         <v>11</v>
@@ -1219,7 +731,7 @@
     <row customFormat="1" r="71" s="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
@@ -1230,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1249,46 +761,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1296,8 +808,8 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D2">
         <v>650009044</v>
@@ -1305,22 +817,22 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L2">
@@ -1343,12 +855,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1379,43 +891,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1432,19 +944,19 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K2">
@@ -1464,14 +976,14 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/web-automation-framework/src/main/resources/excel/FlujosMCSS.xlsx
+++ b/web-automation-framework/src/main/resources/excel/FlujosMCSS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{37D8D553-F8C8-49C2-9BE9-63B5D613167A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView windowHeight="2760" windowWidth="14670" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Login" r:id="rId1" sheetId="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>TC1</t>
   </si>
@@ -167,17 +168,17 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>ricardofort26543374@gmail.com</t>
+    <t>ric4rdof0rt23224@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +220,10 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +246,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -260,7 +265,8 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
@@ -541,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +737,7 @@
     <row customFormat="1" r="71" s="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId1" ref="C2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
@@ -739,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -869,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/web-automation-framework/src/main/resources/excel/FlujosMCSS.xlsx
+++ b/web-automation-framework/src/main/resources/excel/FlujosMCSS.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{37D8D553-F8C8-49C2-9BE9-63B5D613167A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" r:id="rId1" sheetId="1"/>
-    <sheet name="Caeq" r:id="rId2" sheetId="2"/>
-    <sheet name="Caplan" r:id="rId3" sheetId="4"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Caeq" sheetId="2" r:id="rId2"/>
+    <sheet name="Caplan" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>TC1</t>
   </si>
@@ -168,17 +167,17 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>ric4rdof0rt23224@gmail.com</t>
+    <t>ric4rdof0rt235822324@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,14 +215,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,37 +234,35 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -290,10 +279,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -328,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -363,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -457,21 +446,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -488,7 +477,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -540,29 +529,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="49.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +608,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
@@ -666,87 +655,87 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="4" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="5" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="6" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="7" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="9" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="11" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="12" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="13" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="14" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="15" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="16" s="1" spans="1:25" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="17" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="18" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="19" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="20" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="21" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="22" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="23" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="24" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="25" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="26" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="27" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="28" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="29" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="30" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="31" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="32" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="33" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="34" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="35" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="36" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="37" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="38" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="39" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="40" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="41" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="42" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="43" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="44" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="45" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="46" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="47" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="48" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="49" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="50" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="51" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="52" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="53" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="54" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="55" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="56" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="57" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="58" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="59" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="60" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="61" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="62" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="63" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="64" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="65" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="66" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="67" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="68" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="69" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="70" s="1" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="71" s="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -754,16 +743,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="2.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -869,14 +858,14 @@
       <c r="K3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -884,16 +873,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="2.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="2.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -992,7 +981,7 @@
       <c r="B4" s="8"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/web-automation-framework/src/main/resources/excel/FlujosMCSS.xlsx
+++ b/web-automation-framework/src/main/resources/excel/FlujosMCSS.xlsx
@@ -167,7 +167,7 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>ric4rdof0rt235822324@gmail.com</t>
+    <t>ric4rdof0rt2235822324@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
